--- a/Offline/BusinessManagement/Information/Anodiam-Info/ToDoList-ForDemo-16-12-2023.xlsx
+++ b/Offline/BusinessManagement/Information/Anodiam-Info/ToDoList-ForDemo-16-12-2023.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Information\Anodiam-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AD225F-1167-4A80-9021-6250C58C2DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE5F257-C68F-408A-AF81-BD7AE3704FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo-List-16-Dec-2023" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ToDo-List-16-Dec-2023'!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Slno</t>
   </si>
@@ -103,6 +106,18 @@
   </si>
   <si>
     <t>We have 2 posters.</t>
+  </si>
+  <si>
+    <t>Call Hiya for 16th Dec demo</t>
+  </si>
+  <si>
+    <t>Fix the TV</t>
+  </si>
+  <si>
+    <t>Purchase a white board</t>
+  </si>
+  <si>
+    <t>Fix the white board in the demo room for 16 Dec 2023</t>
   </si>
 </sst>
 </file>
@@ -435,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +674,52 @@
         <v>9</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{31EAAB07-5891-4FC6-B068-BF760B4D540B}">
       <formula1>"Done,Not-Done,In-Progress"</formula1>

--- a/Offline/BusinessManagement/Information/Anodiam-Info/ToDoList-ForDemo-16-12-2023.xlsx
+++ b/Offline/BusinessManagement/Information/Anodiam-Info/ToDoList-ForDemo-16-12-2023.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Information\Anodiam-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE5F257-C68F-408A-AF81-BD7AE3704FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5928E38C-E28C-47E9-BF09-3CFB9D8E4336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo-List-16-Dec-2023" sheetId="1" r:id="rId1"/>
+    <sheet name="Speakers" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ToDo-List-16-Dec-2023'!$A$1:$D$1</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Slno</t>
   </si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>Fix the white board in the demo room for 16 Dec 2023</t>
+  </si>
+  <si>
+    <t>SlNo</t>
+  </si>
+  <si>
+    <t>Speaker</t>
   </si>
 </sst>
 </file>
@@ -452,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -727,4 +734,27 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E2DBE5-1CB8-45C5-90DE-2714900D6F4B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>